--- a/trunk/Final Presentation/João Martins/Requisitos iniciais e finais.xlsx
+++ b/trunk/Final Presentation/João Martins/Requisitos iniciais e finais.xlsx
@@ -392,7 +392,7 @@
   <dimension ref="E3:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E14" sqref="E14:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -440,7 +440,7 @@
         <v>11</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:G7" si="0">F5-H5</f>
+        <f t="shared" ref="G5:G6" si="0">F5-H5</f>
         <v>11</v>
       </c>
       <c r="H5">
@@ -477,6 +477,12 @@
       <c r="H7">
         <f t="shared" si="1"/>
         <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <f>64/66*100</f>
+        <v>96.969696969696969</v>
       </c>
     </row>
     <row r="13" spans="5:8" x14ac:dyDescent="0.3">
